--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_07_beg.xlsx
@@ -1620,7 +1620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오리지뉴턴트 감염자"]크르르르르……
+    <t xml:space="preserve">[name="오리지뉴턴트 감염자"]그어어어어……
 </t>
   </si>
   <si>
